--- a/customer4.xlsx
+++ b/customer4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samdsouza/Documents/EatUp/EatUp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8267D15-6A46-3047-9B20-B5861351EEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF14FF-CC7F-B941-BB31-602B7BBB245D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="9060" windowWidth="25640" windowHeight="14440" xr2:uid="{4AF8E377-6E50-6F47-B3BC-0A3F56CC73CF}"/>
+    <workbookView xWindow="19240" yWindow="3660" windowWidth="25640" windowHeight="14440" xr2:uid="{4AF8E377-6E50-6F47-B3BC-0A3F56CC73CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Customer ID </t>
   </si>
@@ -55,6 +55,69 @@
   </si>
   <si>
     <t xml:space="preserve">Rebecca Gipe </t>
+  </si>
+  <si>
+    <t>Flagstaff House</t>
+  </si>
+  <si>
+    <t>Chimera</t>
+  </si>
+  <si>
+    <t>The Med</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>The Kitchen</t>
+  </si>
+  <si>
+    <t>Santo</t>
+  </si>
+  <si>
+    <t>Black Cat</t>
+  </si>
+  <si>
+    <t>Dushanbe Teahouse</t>
+  </si>
+  <si>
+    <t>Snooze</t>
+  </si>
+  <si>
+    <t>The Sink</t>
+  </si>
+  <si>
+    <t>3/2/2020'</t>
+  </si>
+  <si>
+    <t>3/6/2020'</t>
+  </si>
+  <si>
+    <t>3/8/2020'</t>
+  </si>
+  <si>
+    <t>3/12/2020'</t>
+  </si>
+  <si>
+    <t>3/13/2020'</t>
+  </si>
+  <si>
+    <t>3/16/2020'</t>
+  </si>
+  <si>
+    <t>3/19/2020'</t>
+  </si>
+  <si>
+    <t>3/21/2020'</t>
+  </si>
+  <si>
+    <t>3/22/2020'</t>
+  </si>
+  <si>
+    <t>3/30/2020'</t>
+  </si>
+  <si>
+    <t>Lucile's Creole Café</t>
   </si>
 </sst>
 </file>
@@ -406,16 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCA30E1-FAE3-9947-8B8F-06D09B5032CF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -451,6 +516,160 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>80.34</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>30.2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15.3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>46.78</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>20.13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>33.85</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>57.99</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>51.51</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>22.22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>20.13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
